--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>data</t>
   </si>
@@ -49,6 +49,9 @@
     <t>2025-06-09</t>
   </si>
   <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -58,10 +61,16 @@
     <t>355232</t>
   </si>
   <si>
+    <t>357392</t>
+  </si>
+  <si>
     <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
   </si>
   <si>
     <t>PROJETOR AGOLD</t>
+  </si>
+  <si>
+    <t>RING LIGHT 10 POLEGADAS COM TRIPE</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,19 +471,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="H2">
         <v>1.02</v>
@@ -491,25 +500,54 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>40483</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>-109</v>
+        <v>-110</v>
       </c>
       <c r="H3">
         <v>1.02</v>
       </c>
       <c r="I3">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>4408</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>-444</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
+      <c r="I4">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>data</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2025-06-11</t>
   </si>
   <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>357392</t>
   </si>
   <si>
+    <t>358537</t>
+  </si>
+  <si>
     <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>RING LIGHT 10 POLEGADAS COM TRIPE</t>
+  </si>
+  <si>
+    <t>CANETA STYLLUS ACTIVA AGOLD</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,25 +480,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="H2">
         <v>1.02</v>
       </c>
       <c r="I2">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,19 +509,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>40483</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>-110</v>
+        <v>-112</v>
       </c>
       <c r="H3">
         <v>1.02</v>
@@ -529,16 +538,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>4408</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>-444</v>
@@ -548,6 +557,35 @@
       </c>
       <c r="I4">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>13588</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>-4</v>
+      </c>
+      <c r="H5">
+        <v>1.05</v>
+      </c>
+      <c r="I5">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>data</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2025-06-12</t>
   </si>
   <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>358537</t>
   </si>
   <si>
+    <t>359654</t>
+  </si>
+  <si>
     <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>CANETA STYLLUS ACTIVA AGOLD</t>
+  </si>
+  <si>
+    <t>BASTAO DE LUZ RGB LED TOMATE</t>
   </si>
 </sst>
 </file>
@@ -437,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>-40</v>
@@ -509,19 +518,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>40483</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>-112</v>
+        <v>-115</v>
       </c>
       <c r="H3">
         <v>1.02</v>
@@ -538,16 +547,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>4408</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>-444</v>
@@ -567,16 +576,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>13588</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>-4</v>
@@ -586,6 +595,35 @@
       </c>
       <c r="I5">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>12680</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>-26</v>
+      </c>
+      <c r="H6">
+        <v>1.08</v>
+      </c>
+      <c r="I6">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>data</t>
   </si>
@@ -58,9 +58,15 @@
     <t>2025-06-13</t>
   </si>
   <si>
+    <t>2025-06-14</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
+    <t>SOCIEDADE MICHELIN DE PARTICIPACOES INDUST E COMERCIO LTDA</t>
+  </si>
+  <si>
     <t>347356</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t>359654</t>
+  </si>
+  <si>
+    <t>360346</t>
   </si>
   <si>
     <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>-40</v>
@@ -518,16 +527,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>40483</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>-115</v>
@@ -547,16 +556,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>4408</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>-444</v>
@@ -576,25 +585,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>13588</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>-4</v>
       </c>
       <c r="H5">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I5">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -605,16 +614,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>12680</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>-26</v>
@@ -624,6 +633,35 @@
       </c>
       <c r="I6">
         <v>0.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>13588</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>1.06</v>
+      </c>
+      <c r="I7">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>data</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2025-06-14</t>
   </si>
   <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>360346</t>
   </si>
   <si>
+    <t>362396</t>
+  </si>
+  <si>
     <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>BASTAO DE LUZ RGB LED TOMATE</t>
+  </si>
+  <si>
+    <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,16 +507,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>-40</v>
@@ -527,19 +536,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>40483</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>-115</v>
+        <v>-126</v>
       </c>
       <c r="H3">
         <v>1.02</v>
@@ -556,19 +565,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>4408</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>-444</v>
+        <v>-445</v>
       </c>
       <c r="H4">
         <v>1.02</v>
@@ -585,19 +594,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>13588</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>-4</v>
+        <v>-65</v>
       </c>
       <c r="H5">
         <v>1.06</v>
@@ -614,19 +623,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>12680</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>-26</v>
+        <v>-1</v>
       </c>
       <c r="H6">
         <v>1.08</v>
@@ -643,25 +652,54 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>13588</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>-4</v>
+        <v>-65</v>
       </c>
       <c r="H7">
         <v>1.06</v>
       </c>
       <c r="I7">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>13079</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.08</v>
+      </c>
+      <c r="I8">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
     <t>2025-06-09</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>SOCIEDADE MICHELIN DE PARTICIPACOES INDUST E COMERCIO LTDA</t>
   </si>
   <si>
-    <t>347356</t>
-  </si>
-  <si>
     <t>355232</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>362396</t>
-  </si>
-  <si>
-    <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
   </si>
   <si>
     <t>PROJETOR AGOLD</t>
@@ -464,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,25 +498,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>13000</v>
+        <v>40483</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>-40</v>
+        <v>-126</v>
       </c>
       <c r="H2">
         <v>1.02</v>
       </c>
       <c r="I2">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -536,25 +527,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>40483</v>
+        <v>4408</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>-126</v>
+        <v>-446</v>
       </c>
       <c r="H3">
         <v>1.02</v>
       </c>
       <c r="I3">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -565,25 +556,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>4408</v>
+        <v>13588</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>-445</v>
+        <v>-7</v>
       </c>
       <c r="H4">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="I4">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -594,25 +585,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>13588</v>
+        <v>12680</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>-65</v>
+        <v>-1</v>
       </c>
       <c r="H5">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I5">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -626,22 +617,22 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>12680</v>
+        <v>13588</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="H6">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="I6">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -652,53 +643,24 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>13588</v>
+        <v>13079</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>-65</v>
+        <v>-424</v>
       </c>
       <c r="H7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I7">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>13079</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1.08</v>
-      </c>
-      <c r="I8">
         <v>0.28</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>data</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2025-06-16</t>
   </si>
   <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
   </si>
   <si>
     <t>362396</t>
+  </si>
+  <si>
+    <t>365782</t>
+  </si>
+  <si>
+    <t>366707</t>
   </si>
   <si>
     <t>PROJETOR AGOLD</t>
@@ -455,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,25 +507,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>40483</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>-126</v>
+        <v>-133</v>
       </c>
       <c r="H2">
         <v>1.02</v>
       </c>
       <c r="I2">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -527,19 +536,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>4408</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>-446</v>
+        <v>-447</v>
       </c>
       <c r="H3">
         <v>1.02</v>
@@ -556,25 +565,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>13588</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>-7</v>
+        <v>-69</v>
       </c>
       <c r="H4">
         <v>1.06</v>
       </c>
       <c r="I4">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -585,25 +594,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>12680</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="H5">
         <v>1.08</v>
       </c>
       <c r="I5">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -614,25 +623,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>13588</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>-7</v>
+        <v>-69</v>
       </c>
       <c r="H6">
         <v>1.06</v>
       </c>
       <c r="I6">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -643,25 +652,83 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>13079</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>-424</v>
+        <v>-429</v>
       </c>
       <c r="H7">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="I7">
-        <v>0.28</v>
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>13079</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>-429</v>
+      </c>
+      <c r="H8">
+        <v>1.08</v>
+      </c>
+      <c r="I8">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>13079</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>-429</v>
+      </c>
+      <c r="H9">
+        <v>1.08</v>
+      </c>
+      <c r="I9">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -519,10 +519,10 @@
         <v>26</v>
       </c>
       <c r="G2">
-        <v>-133</v>
+        <v>-138</v>
       </c>
       <c r="H2">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I2">
         <v>0.12</v>
@@ -548,7 +548,7 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>-447</v>
+        <v>-16</v>
       </c>
       <c r="H3">
         <v>1.02</v>
@@ -577,10 +577,10 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>-69</v>
+        <v>-70</v>
       </c>
       <c r="H4">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I4">
         <v>0.23</v>
@@ -612,7 +612,7 @@
         <v>1.08</v>
       </c>
       <c r="I5">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -635,10 +635,10 @@
         <v>28</v>
       </c>
       <c r="G6">
-        <v>-69</v>
+        <v>-70</v>
       </c>
       <c r="H6">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I6">
         <v>0.23</v>
@@ -664,7 +664,7 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <v>-429</v>
+        <v>-430</v>
       </c>
       <c r="H7">
         <v>1.08</v>
@@ -693,7 +693,7 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <v>-429</v>
+        <v>-430</v>
       </c>
       <c r="H8">
         <v>1.08</v>
@@ -722,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="G9">
-        <v>-429</v>
+        <v>-430</v>
       </c>
       <c r="H9">
         <v>1.08</v>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>data</t>
   </si>
@@ -73,12 +73,21 @@
     <t>355232</t>
   </si>
   <si>
+    <t>357349</t>
+  </si>
+  <si>
     <t>357392</t>
   </si>
   <si>
+    <t>357402</t>
+  </si>
+  <si>
     <t>358537</t>
   </si>
   <si>
+    <t>358540</t>
+  </si>
+  <si>
     <t>359654</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>362396</t>
   </si>
   <si>
+    <t>362404</t>
+  </si>
+  <si>
     <t>365782</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
   </si>
   <si>
     <t>PROJETOR AGOLD</t>
+  </si>
+  <si>
+    <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
   </si>
   <si>
     <t>RING LIGHT 10 POLEGADAS COM TRIPE</t>
@@ -464,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +531,10 @@
         <v>40483</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>-138</v>
+        <v>-140</v>
       </c>
       <c r="H2">
         <v>1.01</v>
@@ -542,24 +557,24 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4408</v>
+        <v>13546</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>-16</v>
+        <v>-291</v>
       </c>
       <c r="H3">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="I3">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -571,24 +586,24 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>13588</v>
+        <v>4408</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>-70</v>
+        <v>-449</v>
       </c>
       <c r="H4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="I4">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -600,30 +615,30 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>12680</v>
+        <v>13546</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5">
-        <v>-27</v>
+        <v>-291</v>
       </c>
       <c r="H5">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I5">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -632,21 +647,21 @@
         <v>13588</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>-70</v>
+        <v>-74</v>
       </c>
       <c r="H6">
         <v>1.05</v>
       </c>
       <c r="I6">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -658,24 +673,24 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>13079</v>
+        <v>13546</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>-430</v>
+        <v>-291</v>
       </c>
       <c r="H7">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I7">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -687,47 +702,163 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>13079</v>
+        <v>12680</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>-430</v>
+        <v>-28</v>
       </c>
       <c r="H8">
         <v>1.08</v>
       </c>
       <c r="I8">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
+        <v>13588</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>-74</v>
+      </c>
+      <c r="H9">
+        <v>1.05</v>
+      </c>
+      <c r="I9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
         <v>13079</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>-430</v>
-      </c>
-      <c r="H9">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1.08</v>
       </c>
-      <c r="I9">
+      <c r="I10">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>13546</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>-291</v>
+      </c>
+      <c r="H11">
+        <v>1.09</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>13079</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1.08</v>
+      </c>
+      <c r="I12">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>13079</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1.08</v>
+      </c>
+      <c r="I13">
         <v>0.29</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
     <t>2025-06-11</t>
   </si>
   <si>
@@ -64,15 +61,15 @@
     <t>2025-06-19</t>
   </si>
   <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
     <t>SOCIEDADE MICHELIN DE PARTICIPACOES INDUST E COMERCIO LTDA</t>
   </si>
   <si>
-    <t>355232</t>
-  </si>
-  <si>
     <t>357349</t>
   </si>
   <si>
@@ -106,7 +103,7 @@
     <t>366707</t>
   </si>
   <si>
-    <t>PROJETOR AGOLD</t>
+    <t>370495</t>
   </si>
   <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
+  </si>
+  <si>
+    <t>SMART WATCH HMASTON INK12</t>
   </si>
 </sst>
 </file>
@@ -528,24 +528,24 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>40483</v>
+        <v>13546</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2">
-        <v>-140</v>
+        <v>-291</v>
       </c>
       <c r="H2">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I2">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -557,24 +557,24 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>13546</v>
+        <v>4408</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
       </c>
       <c r="G3">
-        <v>-291</v>
+        <v>-450</v>
       </c>
       <c r="H3">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -586,19 +586,19 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4408</v>
+        <v>13546</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>-449</v>
+        <v>-291</v>
       </c>
       <c r="H4">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="I4">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -615,24 +615,24 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>13546</v>
+        <v>13588</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>-291</v>
+        <v>-74</v>
       </c>
       <c r="H5">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -644,19 +644,19 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>13588</v>
+        <v>13546</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>-74</v>
+        <v>-291</v>
       </c>
       <c r="H6">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="I6">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -673,19 +673,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>13546</v>
+        <v>12680</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>-291</v>
+        <v>-28</v>
       </c>
       <c r="H7">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I7">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8">
-        <v>12680</v>
+        <v>13588</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>-28</v>
+        <v>-74</v>
       </c>
       <c r="H8">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="I8">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -725,30 +725,30 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>13588</v>
+        <v>13079</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>-74</v>
+        <v>-434</v>
       </c>
       <c r="H9">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I9">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -760,19 +760,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>13079</v>
+        <v>13546</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-291</v>
       </c>
       <c r="H10">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I10">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -789,24 +789,24 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>13546</v>
+        <v>13079</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>-291</v>
+        <v>-434</v>
       </c>
       <c r="H11">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I11">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>13079</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-434</v>
       </c>
       <c r="H12">
         <v>1.08</v>
@@ -847,19 +847,19 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>13079</v>
+        <v>46217</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="H13">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I13">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -563,7 +563,7 @@
         <v>31</v>
       </c>
       <c r="G3">
-        <v>-450</v>
+        <v>-452</v>
       </c>
       <c r="H3">
         <v>1.01</v>
@@ -737,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>-434</v>
+        <v>-437</v>
       </c>
       <c r="H9">
         <v>1.08</v>
@@ -795,7 +795,7 @@
         <v>34</v>
       </c>
       <c r="G11">
-        <v>-434</v>
+        <v>-437</v>
       </c>
       <c r="H11">
         <v>1.08</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="G12">
-        <v>-434</v>
+        <v>-437</v>
       </c>
       <c r="H12">
         <v>1.08</v>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-11</t>
-  </si>
-  <si>
     <t>2025-06-12</t>
   </si>
   <si>
@@ -70,15 +67,6 @@
     <t>SOCIEDADE MICHELIN DE PARTICIPACOES INDUST E COMERCIO LTDA</t>
   </si>
   <si>
-    <t>357349</t>
-  </si>
-  <si>
-    <t>357392</t>
-  </si>
-  <si>
-    <t>357402</t>
-  </si>
-  <si>
     <t>358537</t>
   </si>
   <si>
@@ -106,13 +94,10 @@
     <t>370495</t>
   </si>
   <si>
+    <t>CANETA STYLLUS ACTIVA AGOLD</t>
+  </si>
+  <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
-  </si>
-  <si>
-    <t>RING LIGHT 10 POLEGADAS COM TRIPE</t>
-  </si>
-  <si>
-    <t>CANETA STYLLUS ACTIVA AGOLD</t>
   </si>
   <si>
     <t>BASTAO DE LUZ RGB LED TOMATE</t>
@@ -479,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,25 +507,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>13546</v>
+        <v>13588</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>-291</v>
+        <v>-74</v>
       </c>
       <c r="H2">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -551,59 +536,59 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>4408</v>
+        <v>13546</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>-452</v>
+        <v>-293</v>
       </c>
       <c r="H3">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I3">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>13546</v>
+        <v>12680</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>-291</v>
+        <v>-28</v>
       </c>
       <c r="H4">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -612,13 +597,13 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>13588</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>-74</v>
@@ -632,89 +617,89 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>13546</v>
+        <v>13079</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>-291</v>
+        <v>-439</v>
       </c>
       <c r="H6">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>12680</v>
+        <v>13546</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>-28</v>
+        <v>-293</v>
       </c>
       <c r="H7">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I7">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>13588</v>
+        <v>13079</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>-74</v>
+        <v>-439</v>
       </c>
       <c r="H8">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I8">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -725,19 +710,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>13079</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>-437</v>
+        <v>-439</v>
       </c>
       <c r="H9">
         <v>1.08</v>
@@ -748,117 +733,30 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>13546</v>
+        <v>46217</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10">
-        <v>-291</v>
+        <v>-88</v>
       </c>
       <c r="H10">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="I10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>13079</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11">
-        <v>-437</v>
-      </c>
-      <c r="H11">
-        <v>1.08</v>
-      </c>
-      <c r="I11">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>13079</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12">
-        <v>-437</v>
-      </c>
-      <c r="H12">
-        <v>1.08</v>
-      </c>
-      <c r="I12">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>46217</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13">
-        <v>-88</v>
-      </c>
-      <c r="H13">
-        <v>1.03</v>
-      </c>
-      <c r="I13">
         <v>0.18</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>data</t>
   </si>
@@ -43,15 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>2025-06-13</t>
-  </si>
-  <si>
-    <t>2025-06-14</t>
-  </si>
-  <si>
     <t>2025-06-16</t>
   </si>
   <si>
@@ -64,21 +55,6 @@
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>SOCIEDADE MICHELIN DE PARTICIPACOES INDUST E COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>358537</t>
-  </si>
-  <si>
-    <t>358540</t>
-  </si>
-  <si>
-    <t>359654</t>
-  </si>
-  <si>
-    <t>360346</t>
-  </si>
-  <si>
     <t>362396</t>
   </si>
   <si>
@@ -94,16 +70,10 @@
     <t>370495</t>
   </si>
   <si>
-    <t>CANETA STYLLUS ACTIVA AGOLD</t>
+    <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
   </si>
   <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
-  </si>
-  <si>
-    <t>BASTAO DE LUZ RGB LED TOMATE</t>
-  </si>
-  <si>
-    <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
   </si>
   <si>
     <t>SMART WATCH HMASTON INK12</t>
@@ -464,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,25 +477,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>13588</v>
+        <v>13079</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>-74</v>
+        <v>-440</v>
       </c>
       <c r="H2">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I2">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -536,19 +506,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>13546</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>-293</v>
+        <v>-295</v>
       </c>
       <c r="H3">
         <v>1.09</v>
@@ -565,198 +535,82 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>12680</v>
+        <v>13079</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>-28</v>
+        <v>-440</v>
       </c>
       <c r="H4">
         <v>1.08</v>
       </c>
       <c r="I4">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>13588</v>
+        <v>13079</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>-74</v>
+        <v>-440</v>
       </c>
       <c r="H5">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I5">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>13079</v>
+        <v>46217</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>-439</v>
+        <v>-88</v>
       </c>
       <c r="H6">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I6">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>13546</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>-293</v>
-      </c>
-      <c r="H7">
-        <v>1.09</v>
-      </c>
-      <c r="I7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>13079</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>-439</v>
-      </c>
-      <c r="H8">
-        <v>1.08</v>
-      </c>
-      <c r="I8">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>13079</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>-439</v>
-      </c>
-      <c r="H9">
-        <v>1.08</v>
-      </c>
-      <c r="I9">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>46217</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>-88</v>
-      </c>
-      <c r="H10">
-        <v>1.03</v>
-      </c>
-      <c r="I10">
         <v>0.18</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>data</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2025-06-24</t>
   </si>
   <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -70,6 +73,15 @@
     <t>370495</t>
   </si>
   <si>
+    <t>374463</t>
+  </si>
+  <si>
+    <t>374471</t>
+  </si>
+  <si>
+    <t>374491</t>
+  </si>
+  <si>
     <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
   </si>
   <si>
@@ -77,6 +89,12 @@
   </si>
   <si>
     <t>SMART WATCH HMASTON INK12</t>
+  </si>
+  <si>
+    <t>FONE SEM FIO OWS EAR-HOOK BRANCO BASIKE</t>
+  </si>
+  <si>
+    <t>BALANÇA DIGITAL 10KG</t>
   </si>
 </sst>
 </file>
@@ -434,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,25 +495,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>13079</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>-440</v>
+        <v>-446</v>
       </c>
       <c r="H2">
         <v>1.08</v>
       </c>
       <c r="I2">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -506,25 +524,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>13546</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>-295</v>
+        <v>-306</v>
       </c>
       <c r="H3">
         <v>1.09</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -535,25 +553,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>13079</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>-440</v>
+        <v>-446</v>
       </c>
       <c r="H4">
         <v>1.08</v>
       </c>
       <c r="I4">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -564,25 +582,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>13079</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>-440</v>
+        <v>-446</v>
       </c>
       <c r="H5">
         <v>1.08</v>
       </c>
       <c r="I5">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -593,16 +611,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>46217</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>-88</v>
@@ -612,6 +630,93 @@
       </c>
       <c r="I6">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>13079</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>-446</v>
+      </c>
+      <c r="H7">
+        <v>1.08</v>
+      </c>
+      <c r="I7">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>49904</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>-16</v>
+      </c>
+      <c r="H8">
+        <v>1.07</v>
+      </c>
+      <c r="I8">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>14186</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>-133</v>
+      </c>
+      <c r="H9">
+        <v>1.04</v>
+      </c>
+      <c r="I9">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
     <t>2025-06-19</t>
   </si>
   <si>
@@ -55,15 +52,12 @@
     <t>2025-06-30</t>
   </si>
   <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>362396</t>
-  </si>
-  <si>
-    <t>362404</t>
-  </si>
-  <si>
     <t>365782</t>
   </si>
   <si>
@@ -82,19 +76,28 @@
     <t>374491</t>
   </si>
   <si>
+    <t>375040</t>
+  </si>
+  <si>
+    <t>375082</t>
+  </si>
+  <si>
     <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
   </si>
   <si>
+    <t>SMART WATCH HMASTON INK12</t>
+  </si>
+  <si>
+    <t>FONE SEM FIO OWS EAR-HOOK BRANCO BASIKE</t>
+  </si>
+  <si>
+    <t>BALANÇA DIGITAL 10KG</t>
+  </si>
+  <si>
+    <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
+  </si>
+  <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
-  </si>
-  <si>
-    <t>SMART WATCH HMASTON INK12</t>
-  </si>
-  <si>
-    <t>FONE SEM FIO OWS EAR-HOOK BRANCO BASIKE</t>
-  </si>
-  <si>
-    <t>BALANÇA DIGITAL 10KG</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>-446</v>
+        <v>-449</v>
       </c>
       <c r="H2">
         <v>1.08</v>
@@ -530,16 +533,16 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>13546</v>
+        <v>13079</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>-306</v>
+        <v>-449</v>
       </c>
       <c r="H3">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I3">
         <v>0.29</v>
@@ -559,24 +562,24 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>13079</v>
+        <v>46217</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>-446</v>
+        <v>-88</v>
       </c>
       <c r="H4">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I4">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -594,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="G5">
-        <v>-446</v>
+        <v>-449</v>
       </c>
       <c r="H5">
         <v>1.08</v>
@@ -617,24 +620,24 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>46217</v>
+        <v>49904</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6">
-        <v>-88</v>
+        <v>-16</v>
       </c>
       <c r="H6">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="I6">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -646,19 +649,19 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>13079</v>
+        <v>14186</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>-446</v>
+        <v>-133</v>
       </c>
       <c r="H7">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="I7">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -675,19 +678,19 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>49904</v>
+        <v>10114</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>-16</v>
+        <v>-84</v>
       </c>
       <c r="H8">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="I8">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -704,19 +707,19 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>14186</v>
+        <v>13546</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>-133</v>
+        <v>-312</v>
       </c>
       <c r="H9">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I9">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>data</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2025-07-01</t>
   </si>
   <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -82,6 +85,12 @@
     <t>375082</t>
   </si>
   <si>
+    <t>375697</t>
+  </si>
+  <si>
+    <t>375731</t>
+  </si>
+  <si>
     <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
   </si>
   <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
+  </si>
+  <si>
+    <t>ADAPTADOR TUDO EM UM UNIVERSAL INOVA PRIME TRA-30078</t>
   </si>
 </sst>
 </file>
@@ -455,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,25 +510,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>13079</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>-449</v>
+        <v>-453</v>
       </c>
       <c r="H2">
         <v>1.08</v>
       </c>
       <c r="I2">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -527,25 +539,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>13079</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>-449</v>
+        <v>-453</v>
       </c>
       <c r="H3">
         <v>1.08</v>
       </c>
       <c r="I3">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -556,16 +568,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>46217</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>-88</v>
@@ -585,25 +597,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>13079</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>-449</v>
+        <v>-453</v>
       </c>
       <c r="H5">
         <v>1.08</v>
       </c>
       <c r="I5">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -614,16 +626,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>49904</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>-16</v>
@@ -643,19 +655,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>14186</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>-133</v>
+        <v>-140</v>
       </c>
       <c r="H7">
         <v>1.04</v>
@@ -672,16 +684,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>10114</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>-84</v>
@@ -701,25 +713,83 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>13546</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>-312</v>
+        <v>-317</v>
       </c>
       <c r="H9">
         <v>1.09</v>
       </c>
       <c r="I9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>13018</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10">
+        <v>1.08</v>
+      </c>
+      <c r="I10">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>13546</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>-317</v>
+      </c>
+      <c r="H11">
+        <v>1.09</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -522,7 +522,7 @@
         <v>25</v>
       </c>
       <c r="G2">
-        <v>-453</v>
+        <v>-455</v>
       </c>
       <c r="H2">
         <v>1.08</v>
@@ -551,7 +551,7 @@
         <v>25</v>
       </c>
       <c r="G3">
-        <v>-453</v>
+        <v>-455</v>
       </c>
       <c r="H3">
         <v>1.08</v>
@@ -609,7 +609,7 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <v>-453</v>
+        <v>-455</v>
       </c>
       <c r="H5">
         <v>1.08</v>
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="G10">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>1.08</v>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-19</t>
-  </si>
-  <si>
     <t>2025-06-24</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>365782</t>
-  </si>
-  <si>
-    <t>366707</t>
-  </si>
-  <si>
     <t>370495</t>
   </si>
   <si>
@@ -91,10 +82,10 @@
     <t>375731</t>
   </si>
   <si>
+    <t>SMART WATCH HMASTON INK12</t>
+  </si>
+  <si>
     <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
-  </si>
-  <si>
-    <t>SMART WATCH HMASTON INK12</t>
   </si>
   <si>
     <t>FONE SEM FIO OWS EAR-HOOK BRANCO BASIKE</t>
@@ -467,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,48 +501,48 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2">
-        <v>13079</v>
+        <v>46217</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>-455</v>
+        <v>-89</v>
       </c>
       <c r="H2">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I2">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>13079</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>-455</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>1.08</v>
@@ -568,54 +559,54 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>46217</v>
+        <v>49904</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>-88</v>
+        <v>-16</v>
       </c>
       <c r="H4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>13079</v>
+        <v>14186</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5">
-        <v>-455</v>
+        <v>-142</v>
       </c>
       <c r="H5">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I5">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -626,25 +617,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>49904</v>
+        <v>10114</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>-16</v>
+        <v>-84</v>
       </c>
       <c r="H6">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="I6">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -655,25 +646,25 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>14186</v>
+        <v>13546</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>-140</v>
+        <v>-317</v>
       </c>
       <c r="H7">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I7">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -684,25 +675,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>10114</v>
+        <v>13018</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>-84</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I8">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -713,16 +704,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>13546</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>-317</v>
@@ -731,64 +722,6 @@
         <v>1.09</v>
       </c>
       <c r="I9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>13018</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1.08</v>
-      </c>
-      <c r="I10">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>13546</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>-317</v>
-      </c>
-      <c r="H11">
-        <v>1.09</v>
-      </c>
-      <c r="I11">
         <v>0.3</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>data</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2025-07-02</t>
   </si>
   <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -73,13 +76,10 @@
     <t>375040</t>
   </si>
   <si>
-    <t>375082</t>
-  </si>
-  <si>
     <t>375697</t>
   </si>
   <si>
-    <t>375731</t>
+    <t>378212</t>
   </si>
   <si>
     <t>SMART WATCH HMASTON INK12</t>
@@ -97,10 +97,10 @@
     <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
   </si>
   <si>
+    <t>ADAPTADOR TUDO EM UM UNIVERSAL INOVA PRIME TRA-30078</t>
+  </si>
+  <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
-  </si>
-  <si>
-    <t>ADAPTADOR TUDO EM UM UNIVERSAL INOVA PRIME TRA-30078</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>46217</v>
@@ -513,7 +513,7 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="H2">
         <v>1.03</v>
@@ -530,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>13079</v>
@@ -542,7 +542,7 @@
         <v>23</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>-459</v>
       </c>
       <c r="H3">
         <v>1.08</v>
@@ -559,10 +559,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>49904</v>
@@ -588,10 +588,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>14186</v>
@@ -600,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <v>-142</v>
+        <v>-144</v>
       </c>
       <c r="H5">
         <v>1.03</v>
@@ -617,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>10114</v>
@@ -629,7 +629,7 @@
         <v>26</v>
       </c>
       <c r="G6">
-        <v>-84</v>
+        <v>-85</v>
       </c>
       <c r="H6">
         <v>1.05</v>
@@ -640,89 +640,60 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>13546</v>
+        <v>13018</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7">
-        <v>-317</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I7">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>13018</v>
+        <v>13546</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>-321</v>
       </c>
       <c r="H8">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="I8">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>13546</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <v>-317</v>
-      </c>
-      <c r="H9">
-        <v>1.09</v>
-      </c>
-      <c r="I9">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>data</t>
   </si>
@@ -64,6 +64,9 @@
     <t>370495</t>
   </si>
   <si>
+    <t>374455</t>
+  </si>
+  <si>
     <t>374463</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>SMART WATCH HMASTON INK12</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM SEM FIO 5W METAL</t>
   </si>
   <si>
     <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
@@ -458,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +516,7 @@
         <v>46217</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>-90</v>
@@ -536,16 +542,16 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>13079</v>
+        <v>47791</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>-459</v>
+        <v>-153</v>
       </c>
       <c r="H3">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="I3">
         <v>0.28</v>
@@ -565,19 +571,19 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>49904</v>
+        <v>13079</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>-16</v>
+        <v>-462</v>
       </c>
       <c r="H4">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="I4">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -594,24 +600,24 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>14186</v>
+        <v>49904</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>-144</v>
+        <v>-17</v>
       </c>
       <c r="H5">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I5">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -623,24 +629,24 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>10114</v>
+        <v>14186</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>-85</v>
+        <v>-6</v>
       </c>
       <c r="H6">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I6">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -652,27 +658,27 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>13018</v>
+        <v>10114</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>-85</v>
       </c>
       <c r="H7">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="I7">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -681,18 +687,47 @@
         <v>21</v>
       </c>
       <c r="E8">
+        <v>13018</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.08</v>
+      </c>
+      <c r="I8">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
         <v>13546</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>-321</v>
-      </c>
-      <c r="H8">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>-322</v>
+      </c>
+      <c r="H9">
         <v>1.1</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.34</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-24</t>
-  </si>
-  <si>
     <t>2025-06-30</t>
   </si>
   <si>
@@ -58,10 +55,13 @@
     <t>2025-07-07</t>
   </si>
   <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>370495</t>
+    <t>MATHEUS SILVEIRA</t>
   </si>
   <si>
     <t>374455</t>
@@ -85,7 +85,10 @@
     <t>378212</t>
   </si>
   <si>
-    <t>SMART WATCH HMASTON INK12</t>
+    <t>379513</t>
+  </si>
+  <si>
+    <t>379106</t>
   </si>
   <si>
     <t>CAIXA DE SOM SEM FIO 5W METAL</t>
@@ -107,6 +110,12 @@
   </si>
   <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
+  </si>
+  <si>
+    <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
+  </si>
+  <si>
+    <t>CAPA IPHONE 11</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,27 +519,27 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>46217</v>
+        <v>47791</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>-90</v>
+        <v>-153</v>
       </c>
       <c r="H2">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I2">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -539,19 +548,19 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>47791</v>
+        <v>13079</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>-153</v>
+        <v>-463</v>
       </c>
       <c r="H3">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I3">
         <v>0.28</v>
@@ -559,7 +568,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -568,27 +577,27 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>13079</v>
+        <v>49904</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>-462</v>
+        <v>-20</v>
       </c>
       <c r="H4">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="I4">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -597,22 +606,22 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>49904</v>
+        <v>14186</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>-17</v>
+        <v>-3</v>
       </c>
       <c r="H5">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -626,22 +635,22 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>14186</v>
+        <v>10114</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>-6</v>
+        <v>-87</v>
       </c>
       <c r="H6">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I6">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -655,22 +664,22 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>10114</v>
+        <v>13018</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>-85</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I7">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -678,28 +687,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>13018</v>
+        <v>13546</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>-322</v>
       </c>
       <c r="H8">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="I8">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -707,28 +716,57 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>13546</v>
+        <v>13000</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>-322</v>
+        <v>-49</v>
       </c>
       <c r="H9">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="I9">
-        <v>0.34</v>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>8915</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>1.06</v>
+      </c>
+      <c r="I10">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -586,13 +586,13 @@
         <v>27</v>
       </c>
       <c r="G4">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="H4">
         <v>1.05</v>
       </c>
       <c r="I4">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -644,7 +644,7 @@
         <v>29</v>
       </c>
       <c r="G6">
-        <v>-87</v>
+        <v>-88</v>
       </c>
       <c r="H6">
         <v>1.05</v>
@@ -673,7 +673,7 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>1.08</v>
@@ -731,13 +731,13 @@
         <v>32</v>
       </c>
       <c r="G9">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="H9">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I9">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>data</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2025-07-09</t>
   </si>
   <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>379106</t>
   </si>
   <si>
+    <t>380683</t>
+  </si>
+  <si>
     <t>CAIXA DE SOM SEM FIO 5W METAL</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
   </si>
   <si>
     <t>CAPA IPHONE 11</t>
+  </si>
+  <si>
+    <t>MOCHILA PELUCIA STITCH</t>
   </si>
 </sst>
 </file>
@@ -473,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,16 +525,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>47791</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>-153</v>
@@ -545,16 +554,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>13079</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>-463</v>
@@ -574,16 +583,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>49904</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>-21</v>
@@ -603,19 +612,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>14186</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>-3</v>
+        <v>-147</v>
       </c>
       <c r="H5">
         <v>1.03</v>
@@ -632,19 +641,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>10114</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>-88</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>1.05</v>
@@ -661,19 +670,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>13018</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1.08</v>
@@ -690,16 +699,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>13546</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>-322</v>
@@ -719,16 +728,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>13000</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>-50</v>
@@ -748,25 +757,54 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>8915</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>1.06</v>
       </c>
       <c r="I10">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>14241</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>-25</v>
+      </c>
+      <c r="H11">
+        <v>1.04</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -537,7 +537,7 @@
         <v>27</v>
       </c>
       <c r="G2">
-        <v>-153</v>
+        <v>-154</v>
       </c>
       <c r="H2">
         <v>1.06</v>
@@ -595,7 +595,7 @@
         <v>29</v>
       </c>
       <c r="G4">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="H4">
         <v>1.05</v>
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="G5">
-        <v>-147</v>
+        <v>-148</v>
       </c>
       <c r="H5">
         <v>1.03</v>
@@ -798,7 +798,7 @@
         <v>36</v>
       </c>
       <c r="G11">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="H11">
         <v>1.04</v>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
     <t>2025-07-01</t>
   </si>
   <si>
@@ -61,24 +58,15 @@
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
     <t>MATHEUS SILVEIRA</t>
   </si>
   <si>
-    <t>374455</t>
-  </si>
-  <si>
-    <t>374463</t>
-  </si>
-  <si>
-    <t>374471</t>
-  </si>
-  <si>
-    <t>374491</t>
-  </si>
-  <si>
     <t>375040</t>
   </si>
   <si>
@@ -97,16 +85,7 @@
     <t>380683</t>
   </si>
   <si>
-    <t>CAIXA DE SOM SEM FIO 5W METAL</t>
-  </si>
-  <si>
-    <t>FONE BLUETOOTH BASIKE TWS FON6694</t>
-  </si>
-  <si>
-    <t>FONE SEM FIO OWS EAR-HOOK BRANCO BASIKE</t>
-  </si>
-  <si>
-    <t>BALANÇA DIGITAL 10KG</t>
+    <t>383049</t>
   </si>
   <si>
     <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
@@ -125,6 +104,9 @@
   </si>
   <si>
     <t>MOCHILA PELUCIA STITCH</t>
+  </si>
+  <si>
+    <t>PROJETOR ASTRONAUTA HMASTON</t>
   </si>
 </sst>
 </file>
@@ -482,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,24 +513,24 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>47791</v>
+        <v>10114</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>-154</v>
+        <v>-90</v>
       </c>
       <c r="H2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I2">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -560,27 +542,27 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>13079</v>
+        <v>13018</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>-463</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1.08</v>
       </c>
       <c r="I3">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -589,24 +571,24 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>49904</v>
+        <v>13546</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>-22</v>
+        <v>-323</v>
       </c>
       <c r="H4">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="I4">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -618,13 +600,13 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>14186</v>
+        <v>13000</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>-148</v>
+        <v>-50</v>
       </c>
       <c r="H5">
         <v>1.03</v>
@@ -635,36 +617,36 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>10114</v>
+        <v>8915</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I6">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -676,27 +658,27 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>13018</v>
+        <v>14241</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="H7">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="I7">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -705,106 +687,19 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>13546</v>
+        <v>12016</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>-322</v>
+        <v>-40</v>
       </c>
       <c r="H8">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="I8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>13000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>-50</v>
-      </c>
-      <c r="H9">
-        <v>1.03</v>
-      </c>
-      <c r="I9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>8915</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10">
-        <v>31</v>
-      </c>
-      <c r="H10">
-        <v>1.06</v>
-      </c>
-      <c r="I10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>14241</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11">
-        <v>-26</v>
-      </c>
-      <c r="H11">
-        <v>1.04</v>
-      </c>
-      <c r="I11">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-01</t>
-  </si>
-  <si>
     <t>2025-07-02</t>
   </si>
   <si>
@@ -61,15 +58,15 @@
     <t>2025-07-15</t>
   </si>
   <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
     <t>MATHEUS SILVEIRA</t>
   </si>
   <si>
-    <t>375040</t>
-  </si>
-  <si>
     <t>375697</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>383049</t>
   </si>
   <si>
-    <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
+    <t>383665</t>
   </si>
   <si>
     <t>ADAPTADOR TUDO EM UM UNIVERSAL INOVA PRIME TRA-30078</t>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>PROJETOR ASTRONAUTA HMASTON</t>
+  </si>
+  <si>
+    <t>BARALHO PLASTICO 1001 COPAG ESTOJO C/2 110 UNIDADES</t>
   </si>
 </sst>
 </file>
@@ -513,19 +513,19 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>10114</v>
+        <v>13018</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I2">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -542,19 +542,19 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>13018</v>
+        <v>13546</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-323</v>
       </c>
       <c r="H3">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="I3">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -562,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -571,48 +571,48 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>13546</v>
+        <v>13000</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4">
-        <v>-323</v>
+        <v>-51</v>
       </c>
       <c r="H4">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="I4">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>13000</v>
+        <v>8915</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5">
-        <v>-50</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I5">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -623,25 +623,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>8915</v>
+        <v>14241</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>-26</v>
       </c>
       <c r="H6">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="I6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -658,19 +658,19 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>14241</v>
+        <v>12016</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="H7">
         <v>1.04</v>
       </c>
       <c r="I7">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -678,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -687,19 +687,19 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>12016</v>
+        <v>3984</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8">
-        <v>-40</v>
+        <v>-34</v>
       </c>
       <c r="H8">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="I8">
-        <v>0.21</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-02</t>
-  </si>
-  <si>
     <t>2025-07-07</t>
   </si>
   <si>
@@ -61,15 +58,15 @@
     <t>2025-07-16</t>
   </si>
   <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
     <t>MATHEUS SILVEIRA</t>
   </si>
   <si>
-    <t>375697</t>
-  </si>
-  <si>
     <t>378212</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>383665</t>
   </si>
   <si>
-    <t>ADAPTADOR TUDO EM UM UNIVERSAL INOVA PRIME TRA-30078</t>
+    <t>384275</t>
   </si>
   <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>BARALHO PLASTICO 1001 COPAG ESTOJO C/2 110 UNIDADES</t>
+  </si>
+  <si>
+    <t>KIT LANCHE FUNDO DO MAR GARRAFA PLASTICA 500ML + MARMITA 700ML</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -513,19 +513,19 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>13018</v>
+        <v>13546</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-323</v>
       </c>
       <c r="H2">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="I2">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -542,48 +542,48 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>13546</v>
+        <v>13000</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3">
-        <v>-323</v>
+        <v>-51</v>
       </c>
       <c r="H3">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="I3">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>13000</v>
+        <v>8915</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4">
-        <v>-51</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -594,25 +594,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>8915</v>
+        <v>14241</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>-26</v>
       </c>
       <c r="H5">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -629,19 +629,19 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>14241</v>
+        <v>12016</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="H6">
         <v>1.04</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>12016</v>
+        <v>3984</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7">
-        <v>-40</v>
+        <v>-34</v>
       </c>
       <c r="H7">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="I7">
-        <v>0.21</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -678,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -687,19 +687,19 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>3984</v>
+        <v>13185</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8">
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="H8">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="I8">
-        <v>0.73</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -548,7 +548,7 @@
         <v>25</v>
       </c>
       <c r="G3">
-        <v>-51</v>
+        <v>-52</v>
       </c>
       <c r="H3">
         <v>1.03</v>
@@ -577,13 +577,13 @@
         <v>26</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>1.06</v>
       </c>
       <c r="I4">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -635,7 +635,7 @@
         <v>28</v>
       </c>
       <c r="G6">
-        <v>-40</v>
+        <v>-3</v>
       </c>
       <c r="H6">
         <v>1.04</v>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>data</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2025-07-17</t>
   </si>
   <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>378212</t>
   </si>
   <si>
+    <t>378216</t>
+  </si>
+  <si>
     <t>379513</t>
   </si>
   <si>
@@ -88,9 +94,15 @@
     <t>384275</t>
   </si>
   <si>
+    <t>386126</t>
+  </si>
+  <si>
     <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
   </si>
   <si>
+    <t>CABO HMASTON TIPO C IOS 30W</t>
+  </si>
+  <si>
     <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
   </si>
   <si>
@@ -107,6 +119,9 @@
   </si>
   <si>
     <t>KIT LANCHE FUNDO DO MAR GARRAFA PLASTICA 500ML + MARMITA 700ML</t>
+  </si>
+  <si>
+    <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
   </si>
 </sst>
 </file>
@@ -464,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,16 +522,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>13546</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>-323</v>
@@ -530,31 +545,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>13000</v>
+        <v>13538</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>-52</v>
+        <v>-61</v>
       </c>
       <c r="H3">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="I3">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -568,138 +583,196 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>8915</v>
+        <v>13000</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>-53</v>
       </c>
       <c r="H4">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="I4">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>14241</v>
+        <v>8915</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>-26</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>12016</v>
+        <v>14241</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>-3</v>
+        <v>-27</v>
       </c>
       <c r="H6">
         <v>1.04</v>
       </c>
       <c r="I6">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3984</v>
+        <v>12016</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>-34</v>
+        <v>-3</v>
       </c>
       <c r="H7">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="I7">
-        <v>0.73</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3984</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>-34</v>
+      </c>
+      <c r="H8">
+        <v>1.22</v>
+      </c>
+      <c r="I8">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>13185</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>-34</v>
+      </c>
+      <c r="H9">
+        <v>1.03</v>
+      </c>
+      <c r="I9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>13185</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>-33</v>
-      </c>
-      <c r="H8">
-        <v>1.03</v>
-      </c>
-      <c r="I8">
-        <v>0.17</v>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>10114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>-93</v>
+      </c>
+      <c r="H10">
+        <v>1.05</v>
+      </c>
+      <c r="I10">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
     <t>2025-07-09</t>
   </si>
   <si>
@@ -70,12 +67,6 @@
     <t>MATHEUS SILVEIRA</t>
   </si>
   <si>
-    <t>378212</t>
-  </si>
-  <si>
-    <t>378216</t>
-  </si>
-  <si>
     <t>379513</t>
   </si>
   <si>
@@ -95,12 +86,6 @@
   </si>
   <si>
     <t>386126</t>
-  </si>
-  <si>
-    <t>FONE SEM FIO BOX PRETO ESTEREO EARBUDS CASE CARREGADOR BLUETOOTH LETRON</t>
-  </si>
-  <si>
-    <t>CABO HMASTON TIPO C IOS 30W</t>
   </si>
   <si>
     <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
@@ -479,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,28 +504,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>13546</v>
+        <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>-323</v>
+        <v>-53</v>
       </c>
       <c r="H2">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -554,22 +539,22 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>13538</v>
+        <v>8915</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -580,198 +565,140 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>13000</v>
+        <v>14241</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>-53</v>
+        <v>-27</v>
       </c>
       <c r="H4">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>8915</v>
+        <v>12016</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>-3</v>
       </c>
       <c r="H5">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="I5">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>14241</v>
+        <v>3984</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>-27</v>
+        <v>-34</v>
       </c>
       <c r="H6">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="I6">
-        <v>0.19</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>12016</v>
+        <v>13185</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>-3</v>
+        <v>-34</v>
       </c>
       <c r="H7">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I7">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>3984</v>
+        <v>10114</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>-34</v>
+        <v>-93</v>
       </c>
       <c r="H8">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="I8">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>13185</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>-34</v>
-      </c>
-      <c r="H9">
-        <v>1.03</v>
-      </c>
-      <c r="I9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>10114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10">
-        <v>-93</v>
-      </c>
-      <c r="H10">
-        <v>1.05</v>
-      </c>
-      <c r="I10">
         <v>0.22</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>data</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2025-07-21</t>
   </si>
   <si>
+    <t>2025-07-23</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>386126</t>
   </si>
   <si>
+    <t>387489</t>
+  </si>
+  <si>
     <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
   </si>
   <si>
@@ -107,6 +113,9 @@
   </si>
   <si>
     <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
+  </si>
+  <si>
+    <t>POWER BANK 5000mAh PN-952</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,16 +516,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>-53</v>
@@ -536,16 +545,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>8915</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -554,7 +563,7 @@
         <v>1.06</v>
       </c>
       <c r="I3">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -565,16 +574,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>14241</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>-27</v>
@@ -594,16 +603,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>12016</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>-3</v>
@@ -623,16 +632,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3984</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>-34</v>
@@ -652,16 +661,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>13185</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>-34</v>
@@ -681,16 +690,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>10114</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>-93</v>
@@ -700,6 +709,35 @@
       </c>
       <c r="I8">
         <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>13242</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>-239</v>
+      </c>
+      <c r="H9">
+        <v>1.03</v>
+      </c>
+      <c r="I9">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
     <t>2025-07-11</t>
   </si>
   <si>
@@ -67,15 +64,6 @@
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>MATHEUS SILVEIRA</t>
-  </si>
-  <si>
-    <t>379513</t>
-  </si>
-  <si>
-    <t>379106</t>
-  </si>
-  <si>
     <t>380683</t>
   </si>
   <si>
@@ -91,15 +79,12 @@
     <t>386126</t>
   </si>
   <si>
+    <t>386260</t>
+  </si>
+  <si>
     <t>387489</t>
   </si>
   <si>
-    <t>MOUSE PAD HARRY POTTER ESTAMPADO 26CMX21CM BLISTER C/1 UND LETRON</t>
-  </si>
-  <si>
-    <t>CAPA IPHONE 11</t>
-  </si>
-  <si>
     <t>MOCHILA PELUCIA STITCH</t>
   </si>
   <si>
@@ -113,6 +98,9 @@
   </si>
   <si>
     <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
+  </si>
+  <si>
+    <t>MARMITA ELÉTRICA ONEX</t>
   </si>
   <si>
     <t>POWER BANK 5000mAh PN-952</t>
@@ -473,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,141 +504,141 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>13000</v>
+        <v>14241</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>-53</v>
+        <v>-27</v>
       </c>
       <c r="H2">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I2">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3">
-        <v>8915</v>
+        <v>12016</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H3">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="I3">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>14241</v>
+        <v>3984</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>-27</v>
+        <v>-35</v>
       </c>
       <c r="H4">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="I4">
-        <v>0.19</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>12016</v>
+        <v>13185</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>-3</v>
+        <v>-34</v>
       </c>
       <c r="H5">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I5">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3984</v>
+        <v>10114</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>-34</v>
+        <v>-94</v>
       </c>
       <c r="H6">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="I6">
-        <v>0.73</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -661,25 +649,25 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>13185</v>
+        <v>47869</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>-34</v>
+        <v>-16</v>
       </c>
       <c r="H7">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="I7">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -690,53 +678,24 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>10114</v>
+        <v>13242</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>-93</v>
+        <v>-239</v>
       </c>
       <c r="H8">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I8">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>13242</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>-239</v>
-      </c>
-      <c r="H9">
-        <v>1.03</v>
-      </c>
-      <c r="I9">
         <v>0.17</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
     <t>2025-07-15</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>380683</t>
-  </si>
-  <si>
     <t>383049</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
   </si>
   <si>
     <t>387489</t>
-  </si>
-  <si>
-    <t>MOCHILA PELUCIA STITCH</t>
   </si>
   <si>
     <t>PROJETOR ASTRONAUTA HMASTON</t>
@@ -461,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,25 +495,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2">
-        <v>14241</v>
+        <v>12016</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>-27</v>
+        <v>-3</v>
       </c>
       <c r="H2">
         <v>1.04</v>
       </c>
       <c r="I2">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -530,28 +521,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>12016</v>
+        <v>3984</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>-3</v>
+        <v>-35</v>
       </c>
       <c r="H3">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="I3">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -559,28 +550,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>3984</v>
+        <v>13185</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="I4">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -591,54 +582,54 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>13185</v>
+        <v>10114</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>-34</v>
+        <v>-94</v>
       </c>
       <c r="H5">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I5">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>10114</v>
+        <v>47869</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>-94</v>
+        <v>-16</v>
       </c>
       <c r="H6">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="I6">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -649,53 +640,24 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>47869</v>
+        <v>13242</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>-16</v>
+        <v>-240</v>
       </c>
       <c r="H7">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="I7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>13242</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>-239</v>
-      </c>
-      <c r="H8">
-        <v>1.03</v>
-      </c>
-      <c r="I8">
         <v>0.17</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>data</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2025-07-23</t>
   </si>
   <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>387489</t>
   </si>
   <si>
+    <t>389107</t>
+  </si>
+  <si>
     <t>PROJETOR ASTRONAUTA HMASTON</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>POWER BANK 5000mAh PN-952</t>
+  </si>
+  <si>
+    <t>BOMBA AUTOMATICA PARA GALAO DE AGUA RECARREGAVEL USB</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,16 +504,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>12016</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>-3</v>
@@ -524,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>3984</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>-35</v>
@@ -553,16 +562,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>13185</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -582,16 +591,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>10114</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>-94</v>
@@ -611,16 +620,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>47869</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>-16</v>
@@ -640,25 +649,54 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>13242</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>-240</v>
+        <v>-242</v>
       </c>
       <c r="H7">
         <v>1.03</v>
       </c>
       <c r="I7">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>10525</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>-102</v>
+      </c>
+      <c r="H8">
+        <v>1.04</v>
+      </c>
+      <c r="I8">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>data</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2025-07-28</t>
   </si>
   <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -85,6 +88,12 @@
     <t>389107</t>
   </si>
   <si>
+    <t>389675</t>
+  </si>
+  <si>
+    <t>389699</t>
+  </si>
+  <si>
     <t>PROJETOR ASTRONAUTA HMASTON</t>
   </si>
   <si>
@@ -104,6 +113,12 @@
   </si>
   <si>
     <t>BOMBA AUTOMATICA PARA GALAO DE AGUA RECARREGAVEL USB</t>
+  </si>
+  <si>
+    <t>KIT SMARTWATCH INOVA PULSEIRA PRETO LISA (FONE+FONTE+CABO)</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO TIPO-C EJ-105</t>
   </si>
 </sst>
 </file>
@@ -461,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,16 +519,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>12016</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>-3</v>
@@ -533,16 +548,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>3984</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>-35</v>
@@ -562,16 +577,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>13185</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -591,16 +606,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>10114</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>-94</v>
@@ -620,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>47869</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>-16</v>
@@ -649,25 +664,25 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>13242</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>-242</v>
+        <v>-245</v>
       </c>
       <c r="H7">
         <v>1.03</v>
       </c>
       <c r="I7">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -678,16 +693,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>10525</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>-102</v>
@@ -697,6 +712,64 @@
       </c>
       <c r="I8">
         <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>49177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>-65</v>
+      </c>
+      <c r="H9">
+        <v>1.03</v>
+      </c>
+      <c r="I9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>48696</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>-73</v>
+      </c>
+      <c r="H10">
+        <v>1.06</v>
+      </c>
+      <c r="I10">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
     <t>2025-07-16</t>
   </si>
   <si>
@@ -64,12 +61,12 @@
     <t>2025-07-29</t>
   </si>
   <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>383049</t>
-  </si>
-  <si>
     <t>383665</t>
   </si>
   <si>
@@ -94,7 +91,10 @@
     <t>389699</t>
   </si>
   <si>
-    <t>PROJETOR ASTRONAUTA HMASTON</t>
+    <t>390273</t>
+  </si>
+  <si>
+    <t>390286</t>
   </si>
   <si>
     <t>BARALHO PLASTICO 1001 COPAG ESTOJO C/2 110 UNIDADES</t>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>FONE DE OUVIDO TIPO-C EJ-105</t>
+  </si>
+  <si>
+    <t>CAMPAINHA RESIDENCIAL SEM FIO 32 TOQUES C/PLUG BIVOL</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO SEM FIO BT BASIKE FON-9856</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -525,19 +531,19 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>12016</v>
+        <v>3984</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>-3</v>
+        <v>-37</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="I2">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -545,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -554,19 +560,19 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>3984</v>
+        <v>13185</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="I3">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -583,24 +589,24 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>13185</v>
+        <v>10114</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>-94</v>
       </c>
       <c r="H4">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I4">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -612,19 +618,19 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>10114</v>
+        <v>47869</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>-94</v>
+        <v>-17</v>
       </c>
       <c r="H5">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I5">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -641,19 +647,19 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>47869</v>
+        <v>13242</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>-16</v>
+        <v>-245</v>
       </c>
       <c r="H6">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -670,19 +676,19 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>13242</v>
+        <v>10525</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>-245</v>
+        <v>-103</v>
       </c>
       <c r="H7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I7">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -699,24 +705,24 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>10525</v>
+        <v>49177</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>-102</v>
+        <v>-65</v>
       </c>
       <c r="H8">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I8">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -728,19 +734,19 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>49177</v>
+        <v>48696</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>-65</v>
+        <v>-73</v>
       </c>
       <c r="H9">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I9">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -757,19 +763,48 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>48696</v>
+        <v>13958</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>-73</v>
+        <v>-25</v>
       </c>
       <c r="H10">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I10">
-        <v>0.23</v>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>12945</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>-50</v>
+      </c>
+      <c r="H11">
+        <v>1.03</v>
+      </c>
+      <c r="I11">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
     <t>2025-07-17</t>
   </si>
   <si>
@@ -64,12 +61,12 @@
     <t>2025-07-30</t>
   </si>
   <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>383665</t>
-  </si>
-  <si>
     <t>384275</t>
   </si>
   <si>
@@ -97,7 +94,7 @@
     <t>390286</t>
   </si>
   <si>
-    <t>BARALHO PLASTICO 1001 COPAG ESTOJO C/2 110 UNIDADES</t>
+    <t>390878</t>
   </si>
   <si>
     <t>KIT LANCHE FUNDO DO MAR GARRAFA PLASTICA 500ML + MARMITA 700ML</t>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>FONE DE OUVIDO SEM FIO BT BASIKE FON-9856</t>
+  </si>
+  <si>
+    <t>SUPORTE PARA NOTEBOOK HMASTON PRETO</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -531,19 +531,19 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>3984</v>
+        <v>13185</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2">
-        <v>-37</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="I2">
-        <v>0.68</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -560,24 +560,24 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>13185</v>
+        <v>10114</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>-94</v>
       </c>
       <c r="H3">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -589,19 +589,19 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>10114</v>
+        <v>47869</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4">
-        <v>-94</v>
+        <v>-17</v>
       </c>
       <c r="H4">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I4">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -618,19 +618,19 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>47869</v>
+        <v>13242</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5">
-        <v>-17</v>
+        <v>-245</v>
       </c>
       <c r="H5">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I5">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -647,19 +647,19 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>13242</v>
+        <v>10525</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
       </c>
       <c r="G6">
-        <v>-245</v>
+        <v>-107</v>
       </c>
       <c r="H6">
         <v>1.03</v>
       </c>
       <c r="I6">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -676,24 +676,24 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>10525</v>
+        <v>49177</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
       </c>
       <c r="G7">
-        <v>-103</v>
+        <v>-65</v>
       </c>
       <c r="H7">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I7">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -705,19 +705,19 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>49177</v>
+        <v>48696</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8">
-        <v>-65</v>
+        <v>-73</v>
       </c>
       <c r="H8">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I8">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -734,24 +734,24 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>48696</v>
+        <v>13958</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9">
-        <v>-73</v>
+        <v>-25</v>
       </c>
       <c r="H9">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I9">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -763,19 +763,19 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>13958</v>
+        <v>12945</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10">
-        <v>-25</v>
+        <v>-53</v>
       </c>
       <c r="H10">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I10">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -792,19 +792,19 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>12945</v>
+        <v>48587</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11">
-        <v>-50</v>
+        <v>-129</v>
       </c>
       <c r="H11">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="I11">
-        <v>0.18</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
     <t>2025-07-21</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>384275</t>
-  </si>
-  <si>
     <t>386126</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>390878</t>
-  </si>
-  <si>
-    <t>KIT LANCHE FUNDO DO MAR GARRAFA PLASTICA 500ML + MARMITA 700ML</t>
   </si>
   <si>
     <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
@@ -482,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,54 +516,54 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>13185</v>
+        <v>10114</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>10114</v>
+        <v>47869</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>-94</v>
+        <v>-19</v>
       </c>
       <c r="H3">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="I3">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -583,25 +574,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>47869</v>
+        <v>13242</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>-17</v>
+        <v>-247</v>
       </c>
       <c r="H4">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I4">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -612,25 +603,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>13242</v>
+        <v>10525</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>-245</v>
+        <v>-108</v>
       </c>
       <c r="H5">
         <v>1.03</v>
       </c>
       <c r="I5">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -641,19 +632,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>10525</v>
+        <v>49177</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>-107</v>
+        <v>-65</v>
       </c>
       <c r="H6">
         <v>1.03</v>
@@ -664,31 +655,31 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>49177</v>
+        <v>48696</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>-65</v>
+        <v>-73</v>
       </c>
       <c r="H7">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I7">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -699,54 +690,54 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>48696</v>
+        <v>13958</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>-73</v>
+        <v>-25</v>
       </c>
       <c r="H8">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I8">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>13958</v>
+        <v>12945</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>-25</v>
+        <v>-53</v>
       </c>
       <c r="H9">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="I9">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -754,56 +745,27 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>12945</v>
+        <v>48587</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>-53</v>
+        <v>-129</v>
       </c>
       <c r="H10">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="I10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>48587</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11">
-        <v>-129</v>
-      </c>
-      <c r="H11">
-        <v>1.27</v>
-      </c>
-      <c r="I11">
         <v>1.47</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>data</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2025-07-31</t>
   </si>
   <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>390878</t>
   </si>
   <si>
+    <t>391921</t>
+  </si>
+  <si>
     <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
   </si>
   <si>
     <t>SUPORTE PARA NOTEBOOK HMASTON PRETO</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO SEM FIO A GOLD V5.3</t>
   </si>
 </sst>
 </file>
@@ -473,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,16 +525,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>10114</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -545,25 +554,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>47869</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="H3">
         <v>1.07</v>
       </c>
       <c r="I3">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -574,19 +583,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>13242</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>-247</v>
+        <v>-250</v>
       </c>
       <c r="H4">
         <v>1.03</v>
@@ -603,19 +612,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>10525</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>-108</v>
+        <v>-109</v>
       </c>
       <c r="H5">
         <v>1.03</v>
@@ -632,16 +641,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>49177</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>-65</v>
@@ -661,16 +670,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>48696</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>-73</v>
@@ -690,22 +699,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>13958</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="H8">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="I8">
         <v>0.27</v>
@@ -719,25 +728,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>12945</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>-53</v>
+        <v>-57</v>
       </c>
       <c r="H9">
         <v>1.03</v>
       </c>
       <c r="I9">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -748,25 +757,54 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>48587</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>-129</v>
+        <v>-130</v>
       </c>
       <c r="H10">
         <v>1.27</v>
       </c>
       <c r="I10">
-        <v>1.47</v>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>10130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>-1248</v>
+      </c>
+      <c r="H11">
+        <v>1.06</v>
+      </c>
+      <c r="I11">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
     <t>2025-07-23</t>
   </si>
   <si>
@@ -67,12 +64,6 @@
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>386126</t>
-  </si>
-  <si>
-    <t>386260</t>
-  </si>
-  <si>
     <t>387489</t>
   </si>
   <si>
@@ -95,12 +86,6 @@
   </si>
   <si>
     <t>391921</t>
-  </si>
-  <si>
-    <t>CARREGADOR USB-C A GOLD 20W CA31-4</t>
-  </si>
-  <si>
-    <t>MARMITA ELÉTRICA ONEX</t>
   </si>
   <si>
     <t>POWER BANK 5000mAh PN-952</t>
@@ -482,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,83 +510,83 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>10114</v>
+        <v>13242</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>-252</v>
       </c>
       <c r="H2">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I2">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>47869</v>
+        <v>10525</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>-20</v>
+        <v>-109</v>
       </c>
       <c r="H3">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="I3">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>13242</v>
+        <v>49177</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>-250</v>
+        <v>-65</v>
       </c>
       <c r="H4">
         <v>1.03</v>
       </c>
       <c r="I4">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -612,25 +597,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>10525</v>
+        <v>48696</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>-109</v>
+        <v>-74</v>
       </c>
       <c r="H5">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I5">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -641,25 +626,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>49177</v>
+        <v>13958</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>-65</v>
+        <v>-26</v>
       </c>
       <c r="H6">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="I6">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -670,25 +655,25 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>48696</v>
+        <v>12945</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>-73</v>
+        <v>-61</v>
       </c>
       <c r="H7">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="I7">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -696,114 +681,56 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>13958</v>
+        <v>48587</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>-26</v>
+        <v>-130</v>
       </c>
       <c r="H8">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="I8">
-        <v>0.27</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>12945</v>
+        <v>10130</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
-        <v>-57</v>
+        <v>-1251</v>
       </c>
       <c r="H9">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>48587</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10">
-        <v>-130</v>
-      </c>
-      <c r="H10">
-        <v>1.27</v>
-      </c>
-      <c r="I10">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>10130</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11">
-        <v>-1248</v>
-      </c>
-      <c r="H11">
-        <v>1.06</v>
-      </c>
-      <c r="I11">
         <v>0.31</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -522,7 +522,7 @@
         <v>24</v>
       </c>
       <c r="G2">
-        <v>-252</v>
+        <v>-254</v>
       </c>
       <c r="H2">
         <v>1.03</v>
@@ -551,7 +551,7 @@
         <v>25</v>
       </c>
       <c r="G3">
-        <v>-109</v>
+        <v>-110</v>
       </c>
       <c r="H3">
         <v>1.03</v>
@@ -609,10 +609,10 @@
         <v>27</v>
       </c>
       <c r="G5">
-        <v>-74</v>
+        <v>-75</v>
       </c>
       <c r="H5">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I5">
         <v>0.23</v>
@@ -667,13 +667,13 @@
         <v>29</v>
       </c>
       <c r="G7">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="H7">
         <v>1.03</v>
       </c>
       <c r="I7">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -725,13 +725,13 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>-1251</v>
+        <v>-1252</v>
       </c>
       <c r="H9">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I9">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-23</t>
-  </si>
-  <si>
     <t>2025-07-28</t>
   </si>
   <si>
@@ -61,12 +58,15 @@
     <t>2025-08-04</t>
   </si>
   <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>387489</t>
-  </si>
-  <si>
     <t>389107</t>
   </si>
   <si>
@@ -88,7 +88,13 @@
     <t>391921</t>
   </si>
   <si>
-    <t>POWER BANK 5000mAh PN-952</t>
+    <t>393760</t>
+  </si>
+  <si>
+    <t>393791</t>
+  </si>
+  <si>
+    <t>394429</t>
   </si>
   <si>
     <t>BOMBA AUTOMATICA PARA GALAO DE AGUA RECARREGAVEL USB</t>
@@ -110,6 +116,12 @@
   </si>
   <si>
     <t>FONE DE OUVIDO SEM FIO A GOLD V5.3</t>
+  </si>
+  <si>
+    <t>HEADSET GAMER PLAYER PLUS LED 7 CORES 2M DRIVER 50MM PRETO LETRON</t>
+  </si>
+  <si>
+    <t>MINI VENTILADOR RECARREGAVEL E PORTATIL, COM PREGADOR MATERIAL ABS E COMPONENTES ELETRONICOS</t>
   </si>
 </sst>
 </file>
@@ -467,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,25 +522,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>13242</v>
+        <v>10525</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>-254</v>
+        <v>-113</v>
       </c>
       <c r="H2">
         <v>1.03</v>
       </c>
       <c r="I2">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -539,54 +551,54 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>10525</v>
+        <v>49177</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>-110</v>
+        <v>-69</v>
       </c>
       <c r="H3">
         <v>1.03</v>
       </c>
       <c r="I3">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>49177</v>
+        <v>48696</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>-65</v>
+        <v>-76</v>
       </c>
       <c r="H4">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -597,54 +609,54 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>48696</v>
+        <v>13958</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>-75</v>
+        <v>-26</v>
       </c>
       <c r="H5">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="I5">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>13958</v>
+        <v>12945</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>-26</v>
+        <v>-72</v>
       </c>
       <c r="H6">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="I6">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -652,28 +664,28 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>12945</v>
+        <v>48587</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>-63</v>
+        <v>-130</v>
       </c>
       <c r="H7">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="I7">
-        <v>0.16</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -681,28 +693,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>48587</v>
+        <v>10130</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>-130</v>
+        <v>-1270</v>
       </c>
       <c r="H8">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="I8">
-        <v>1.46</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -713,24 +725,82 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>14152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9">
+        <v>1.08</v>
+      </c>
+      <c r="I9">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>13965</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>-22</v>
+      </c>
+      <c r="H10">
+        <v>1.24</v>
+      </c>
+      <c r="I10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
         <v>10130</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
-        <v>-1252</v>
-      </c>
-      <c r="H9">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>-1270</v>
+      </c>
+      <c r="H11">
         <v>1.05</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>0.26</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2025-08-08</t>
   </si>
   <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -95,6 +98,12 @@
   </si>
   <si>
     <t>394429</t>
+  </si>
+  <si>
+    <t>396518</t>
+  </si>
+  <si>
+    <t>396572</t>
   </si>
   <si>
     <t>BOMBA AUTOMATICA PARA GALAO DE AGUA RECARREGAVEL USB</t>
@@ -479,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,16 +531,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>10525</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>-113</v>
@@ -551,19 +560,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>49177</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>-69</v>
+        <v>-71</v>
       </c>
       <c r="H3">
         <v>1.03</v>
@@ -580,19 +589,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>48696</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>-76</v>
+        <v>-77</v>
       </c>
       <c r="H4">
         <v>1.05</v>
@@ -609,25 +618,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>13958</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="H5">
         <v>1.07</v>
       </c>
       <c r="I5">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -638,25 +647,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>12945</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>-72</v>
+        <v>-77</v>
       </c>
       <c r="H6">
         <v>1.02</v>
       </c>
       <c r="I6">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -667,25 +676,25 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>48587</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>-130</v>
+        <v>-134</v>
       </c>
       <c r="H7">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I7">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -696,25 +705,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>10130</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>-1270</v>
+        <v>-1282</v>
       </c>
       <c r="H8">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I8">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -725,16 +734,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>14152</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>-13</v>
@@ -754,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>13965</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="H10">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="I10">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -783,25 +792,83 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>10130</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <v>-1270</v>
+        <v>-1282</v>
       </c>
       <c r="H11">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I11">
-        <v>0.26</v>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>10130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>-1282</v>
+      </c>
+      <c r="H12">
+        <v>1.06</v>
+      </c>
+      <c r="I12">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>10130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>-1282</v>
+      </c>
+      <c r="H13">
+        <v>1.06</v>
+      </c>
+      <c r="I13">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>data</t>
   </si>
@@ -43,15 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
     <t>2025-07-31</t>
   </si>
   <si>
@@ -67,24 +58,15 @@
     <t>2025-08-11</t>
   </si>
   <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>389107</t>
-  </si>
-  <si>
-    <t>389675</t>
-  </si>
-  <si>
-    <t>389699</t>
-  </si>
-  <si>
-    <t>390273</t>
-  </si>
-  <si>
-    <t>390286</t>
-  </si>
-  <si>
     <t>390878</t>
   </si>
   <si>
@@ -106,31 +88,46 @@
     <t>396572</t>
   </si>
   <si>
-    <t>BOMBA AUTOMATICA PARA GALAO DE AGUA RECARREGAVEL USB</t>
-  </si>
-  <si>
-    <t>KIT SMARTWATCH INOVA PULSEIRA PRETO LISA (FONE+FONTE+CABO)</t>
-  </si>
-  <si>
-    <t>FONE DE OUVIDO TIPO-C EJ-105</t>
-  </si>
-  <si>
-    <t>CAMPAINHA RESIDENCIAL SEM FIO 32 TOQUES C/PLUG BIVOL</t>
+    <t>397270</t>
+  </si>
+  <si>
+    <t>397297</t>
+  </si>
+  <si>
+    <t>397345</t>
+  </si>
+  <si>
+    <t>398131</t>
+  </si>
+  <si>
+    <t>398157</t>
+  </si>
+  <si>
+    <t>SUPORTE PARA NOTEBOOK HMASTON PRETO</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO SEM FIO A GOLD V5.3</t>
+  </si>
+  <si>
+    <t>HEADSET GAMER PLAYER PLUS LED 7 CORES 2M DRIVER 50MM PRETO LETRON</t>
+  </si>
+  <si>
+    <t>MINI VENTILADOR RECARREGAVEL E PORTATIL, COM PREGADOR MATERIAL ABS E COMPONENTES ELETRONICOS</t>
+  </si>
+  <si>
+    <t>MOUSE SEM FIO 3 BOTOES 1000DPI COLOR FIT AZUL 1709 R8</t>
+  </si>
+  <si>
+    <t>MOUSE SEM FIO 3 BOTOES 1000DPI COLOR FIT BRANCO 1709 R8</t>
   </si>
   <si>
     <t>FONE DE OUVIDO SEM FIO BT BASIKE FON-9856</t>
   </si>
   <si>
-    <t>SUPORTE PARA NOTEBOOK HMASTON PRETO</t>
-  </si>
-  <si>
-    <t>FONE DE OUVIDO SEM FIO A GOLD V5.3</t>
-  </si>
-  <si>
-    <t>HEADSET GAMER PLAYER PLUS LED 7 CORES 2M DRIVER 50MM PRETO LETRON</t>
-  </si>
-  <si>
-    <t>MINI VENTILADOR RECARREGAVEL E PORTATIL, COM PREGADOR MATERIAL ABS E COMPONENTES ELETRONICOS</t>
+    <t>Kit Smartwatch Inova Com Pulseira Respiravel Preto Fone E Carregador</t>
+  </si>
+  <si>
+    <t>FONE HEADSET FONE DE OUVIDO PEI-P9 MUSIC POWER</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,28 +525,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>10525</v>
+        <v>48587</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>-113</v>
+        <v>-134</v>
       </c>
       <c r="H2">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="I2">
-        <v>0.18</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -560,54 +557,54 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>49177</v>
+        <v>10130</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>-71</v>
+        <v>-1314</v>
       </c>
       <c r="H3">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>48696</v>
+        <v>14152</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>-77</v>
+        <v>-13</v>
       </c>
       <c r="H4">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I4">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -615,86 +612,86 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>13958</v>
+        <v>13965</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="H5">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="I5">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>12945</v>
+        <v>10130</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>-77</v>
+        <v>-1314</v>
       </c>
       <c r="H6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="I6">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>48587</v>
+        <v>10130</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>-134</v>
+        <v>-1314</v>
       </c>
       <c r="H7">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="I7">
-        <v>1.43</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -705,25 +702,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>10130</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>-1282</v>
+        <v>-1314</v>
       </c>
       <c r="H8">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I8">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -734,25 +731,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>14152</v>
+        <v>13244</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="H9">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="I9">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -760,115 +757,144 @@
         <v>14</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>13544</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>13965</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10">
-        <v>-23</v>
-      </c>
       <c r="H10">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="I10">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>10130</v>
+        <v>12945</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>-1282</v>
+        <v>-91</v>
       </c>
       <c r="H11">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="I11">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>10130</v>
+        <v>396985</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
       </c>
       <c r="G12">
-        <v>-1282</v>
+        <v>-45</v>
       </c>
       <c r="H12">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="I12">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>10130</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>-1282</v>
+        <v>-1314</v>
       </c>
       <c r="H13">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I13">
-        <v>0.27</v>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>11436</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
+      <c r="I14">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-31</t>
-  </si>
-  <si>
     <t>2025-08-04</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>390878</t>
-  </si>
-  <si>
     <t>391921</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
   </si>
   <si>
     <t>398157</t>
-  </si>
-  <si>
-    <t>SUPORTE PARA NOTEBOOK HMASTON PRETO</t>
   </si>
   <si>
     <t>FONE DE OUVIDO SEM FIO A GOLD V5.3</t>
@@ -485,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,28 +516,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>48587</v>
+        <v>10130</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>-134</v>
+        <v>-1325</v>
       </c>
       <c r="H2">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="I2">
-        <v>1.43</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -557,54 +548,54 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>10130</v>
+        <v>14152</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>-1314</v>
+        <v>-13</v>
       </c>
       <c r="H3">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I3">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>14152</v>
+        <v>13965</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="H4">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="I4">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -612,28 +603,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>13965</v>
+        <v>10130</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>-25</v>
+        <v>-1325</v>
       </c>
       <c r="H5">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -644,19 +635,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>10130</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>-1314</v>
+        <v>-1325</v>
       </c>
       <c r="H6">
         <v>1.05</v>
@@ -667,25 +658,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>10130</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>-1314</v>
+        <v>-1325</v>
       </c>
       <c r="H7">
         <v>1.05</v>
@@ -702,112 +693,112 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>10130</v>
+        <v>13244</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8">
-        <v>-1314</v>
+        <v>-15</v>
       </c>
       <c r="H8">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I8">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>13244</v>
+        <v>13544</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I9">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>13544</v>
+        <v>12945</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>-93</v>
       </c>
       <c r="H10">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="I10">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>12945</v>
+        <v>396985</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>-91</v>
+        <v>-53</v>
       </c>
       <c r="H11">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I11">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -818,83 +809,54 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>396985</v>
+        <v>10130</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12">
-        <v>-45</v>
+        <v>-1325</v>
       </c>
       <c r="H12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="I12">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>10130</v>
+        <v>11436</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>-1314</v>
+        <v>-153</v>
       </c>
       <c r="H13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="I13">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>11436</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1.02</v>
-      </c>
-      <c r="I14">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
     <t>2025-08-07</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>2025-08-13</t>
   </si>
   <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
-    <t>391921</t>
-  </si>
-  <si>
     <t>393760</t>
   </si>
   <si>
@@ -97,15 +94,30 @@
     <t>398157</t>
   </si>
   <si>
+    <t>400531</t>
+  </si>
+  <si>
+    <t>400543</t>
+  </si>
+  <si>
+    <t>400578</t>
+  </si>
+  <si>
+    <t>400733</t>
+  </si>
+  <si>
+    <t>400752</t>
+  </si>
+  <si>
+    <t>HEADSET GAMER PLAYER PLUS LED 7 CORES 2M DRIVER 50MM PRETO LETRON</t>
+  </si>
+  <si>
+    <t>MINI VENTILADOR RECARREGAVEL E PORTATIL, COM PREGADOR MATERIAL ABS E COMPONENTES ELETRONICOS</t>
+  </si>
+  <si>
     <t>FONE DE OUVIDO SEM FIO A GOLD V5.3</t>
   </si>
   <si>
-    <t>HEADSET GAMER PLAYER PLUS LED 7 CORES 2M DRIVER 50MM PRETO LETRON</t>
-  </si>
-  <si>
-    <t>MINI VENTILADOR RECARREGAVEL E PORTATIL, COM PREGADOR MATERIAL ABS E COMPONENTES ELETRONICOS</t>
-  </si>
-  <si>
     <t>MOUSE SEM FIO 3 BOTOES 1000DPI COLOR FIT AZUL 1709 R8</t>
   </si>
   <si>
@@ -119,6 +131,18 @@
   </si>
   <si>
     <t>FONE HEADSET FONE DE OUVIDO PEI-P9 MUSIC POWER</t>
+  </si>
+  <si>
+    <t>SAPATEIRA 12 PARES FERRO + PPATE 2,5KG, TAMANHO 50X18,5X55CM</t>
+  </si>
+  <si>
+    <t>BOMBA AUTOMATICA PARA GALAO DE AGUA RECARREGAVEL USB</t>
+  </si>
+  <si>
+    <t>SUPORTE DE MESA DOBRÁVEL ROTAÇÃO 360° HMASTON</t>
+  </si>
+  <si>
+    <t>ESCOVA DE LIMPEZA ELETRICA RECARREGAVEL ALIMENTACAO BATERIA 18650 LI-ION TAMANHO 20X7,5X6,2CM</t>
   </si>
 </sst>
 </file>
@@ -476,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,27 +549,27 @@
         <v>16</v>
       </c>
       <c r="E2">
-        <v>10130</v>
+        <v>14152</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>-1325</v>
+        <v>-13</v>
       </c>
       <c r="H2">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I2">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -554,19 +578,19 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>14152</v>
+        <v>13965</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="H3">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -574,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -583,19 +607,19 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>13965</v>
+        <v>10130</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>-25</v>
+        <v>-1332</v>
       </c>
       <c r="H4">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -615,21 +639,21 @@
         <v>10130</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>-1325</v>
+        <v>-1332</v>
       </c>
       <c r="H5">
         <v>1.05</v>
       </c>
       <c r="I5">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -644,16 +668,16 @@
         <v>10130</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>-1325</v>
+        <v>-1332</v>
       </c>
       <c r="H6">
         <v>1.05</v>
       </c>
       <c r="I6">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -670,24 +694,24 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>10130</v>
+        <v>13244</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>-1325</v>
+        <v>-15</v>
       </c>
       <c r="H7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I7">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -696,27 +720,27 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>13244</v>
+        <v>13544</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I8">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -728,24 +752,24 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>13544</v>
+        <v>12945</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>-96</v>
       </c>
       <c r="H9">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="I9">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -757,19 +781,19 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>12945</v>
+        <v>396985</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>-93</v>
+        <v>-53</v>
       </c>
       <c r="H10">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I10">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -786,24 +810,24 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>396985</v>
+        <v>10130</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
       </c>
       <c r="G11">
-        <v>-53</v>
+        <v>-1332</v>
       </c>
       <c r="H11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="I11">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -815,19 +839,19 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>10130</v>
+        <v>11436</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>-1325</v>
+        <v>-153</v>
       </c>
       <c r="H12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="I12">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -844,19 +868,135 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>11436</v>
+        <v>418713</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G13">
-        <v>-153</v>
+        <v>-24</v>
       </c>
       <c r="H13">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="I13">
-        <v>0.14</v>
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>418713</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>-24</v>
+      </c>
+      <c r="H14">
+        <v>1.09</v>
+      </c>
+      <c r="I14">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>10525</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>-124</v>
+      </c>
+      <c r="H15">
+        <v>1.04</v>
+      </c>
+      <c r="I15">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>14280</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16">
+        <v>-4</v>
+      </c>
+      <c r="H16">
+        <v>1.08</v>
+      </c>
+      <c r="I16">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>13198</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>-85</v>
+      </c>
+      <c r="H17">
+        <v>1.05</v>
+      </c>
+      <c r="I17">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>data</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2025-08-18</t>
   </si>
   <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -109,6 +112,30 @@
     <t>400752</t>
   </si>
   <si>
+    <t>401315</t>
+  </si>
+  <si>
+    <t>401319</t>
+  </si>
+  <si>
+    <t>401332</t>
+  </si>
+  <si>
+    <t>401336</t>
+  </si>
+  <si>
+    <t>401337</t>
+  </si>
+  <si>
+    <t>401348</t>
+  </si>
+  <si>
+    <t>401363</t>
+  </si>
+  <si>
+    <t>401365</t>
+  </si>
+  <si>
     <t>HEADSET GAMER PLAYER PLUS LED 7 CORES 2M DRIVER 50MM PRETO LETRON</t>
   </si>
   <si>
@@ -118,12 +145,12 @@
     <t>FONE DE OUVIDO SEM FIO A GOLD V5.3</t>
   </si>
   <si>
+    <t>MOUSE SEM FIO 3 BOTOES 1000DPI COLOR FIT BRANCO 1709 R8</t>
+  </si>
+  <si>
     <t>MOUSE SEM FIO 3 BOTOES 1000DPI COLOR FIT AZUL 1709 R8</t>
   </si>
   <si>
-    <t>MOUSE SEM FIO 3 BOTOES 1000DPI COLOR FIT BRANCO 1709 R8</t>
-  </si>
-  <si>
     <t>FONE DE OUVIDO SEM FIO BT BASIKE FON-9856</t>
   </si>
   <si>
@@ -143,6 +170,12 @@
   </si>
   <si>
     <t>ESCOVA DE LIMPEZA ELETRICA RECARREGAVEL ALIMENTACAO BATERIA 18650 LI-ION TAMANHO 20X7,5X6,2CM</t>
+  </si>
+  <si>
+    <t>CANETA APAGAVEL GEL 0.7 AZUL/PRETA - CORES SORTIDAS JOCAR OFFICE</t>
+  </si>
+  <si>
+    <t>SAPATEIRA MATERIAL PP, FERRO E TNT CAPACIDADE18 PARES, SUPORTA ATE 15KG</t>
   </si>
 </sst>
 </file>
@@ -500,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +576,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>14152</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>-13</v>
@@ -572,16 +605,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>13965</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>-2</v>
@@ -601,25 +634,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>10130</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>-1332</v>
+        <v>-1349</v>
       </c>
       <c r="H4">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I4">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -630,25 +663,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>10130</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>-1332</v>
+        <v>-1349</v>
       </c>
       <c r="H5">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -659,25 +692,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>10130</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>-1332</v>
+        <v>-1349</v>
       </c>
       <c r="H6">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I6">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -688,25 +721,25 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>13244</v>
+        <v>13544</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I7">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -717,25 +750,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>13544</v>
+        <v>13244</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="H8">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="I8">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -746,25 +779,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>12945</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>-96</v>
+        <v>-99</v>
       </c>
       <c r="H9">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I9">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -775,25 +808,25 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>396985</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>-53</v>
+        <v>-56</v>
       </c>
       <c r="H10">
         <v>1.02</v>
       </c>
       <c r="I10">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -804,25 +837,25 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>10130</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>-1332</v>
+        <v>-1349</v>
       </c>
       <c r="H11">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I11">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -833,16 +866,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>11436</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G12">
         <v>-153</v>
@@ -862,16 +895,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>418713</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>-24</v>
@@ -891,16 +924,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>418713</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>-24</v>
@@ -920,25 +953,25 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>10525</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
-        <v>-124</v>
+        <v>-129</v>
       </c>
       <c r="H15">
         <v>1.04</v>
       </c>
       <c r="I15">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -949,25 +982,25 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>14280</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H16">
         <v>1.08</v>
       </c>
       <c r="I16">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -978,16 +1011,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>13198</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G17">
         <v>-85</v>
@@ -997,6 +1030,238 @@
       </c>
       <c r="I17">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>13854</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1.24</v>
+      </c>
+      <c r="I18">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>12945</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>-99</v>
+      </c>
+      <c r="H19">
+        <v>1.04</v>
+      </c>
+      <c r="I19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>10525</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>-129</v>
+      </c>
+      <c r="H20">
+        <v>1.04</v>
+      </c>
+      <c r="I20">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>13977</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21">
+        <v>-38</v>
+      </c>
+      <c r="H21">
+        <v>1.03</v>
+      </c>
+      <c r="I21">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>10130</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>-1349</v>
+      </c>
+      <c r="H22">
+        <v>1.06</v>
+      </c>
+      <c r="I22">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>10130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>-1349</v>
+      </c>
+      <c r="H23">
+        <v>1.06</v>
+      </c>
+      <c r="I23">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>10130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>-1349</v>
+      </c>
+      <c r="H24">
+        <v>1.06</v>
+      </c>
+      <c r="I24">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>10130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25">
+        <v>-1349</v>
+      </c>
+      <c r="H25">
+        <v>1.06</v>
+      </c>
+      <c r="I25">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>data</t>
   </si>
@@ -64,6 +64,12 @@
     <t>2025-08-19</t>
   </si>
   <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
   </si>
   <si>
@@ -136,6 +142,21 @@
     <t>401365</t>
   </si>
   <si>
+    <t>401953</t>
+  </si>
+  <si>
+    <t>401965</t>
+  </si>
+  <si>
+    <t>401969</t>
+  </si>
+  <si>
+    <t>402635</t>
+  </si>
+  <si>
+    <t>402640</t>
+  </si>
+  <si>
     <t>HEADSET GAMER PLAYER PLUS LED 7 CORES 2M DRIVER 50MM PRETO LETRON</t>
   </si>
   <si>
@@ -176,6 +197,15 @@
   </si>
   <si>
     <t>SAPATEIRA MATERIAL PP, FERRO E TNT CAPACIDADE18 PARES, SUPORTA ATE 15KG</t>
+  </si>
+  <si>
+    <t>COLHER MEDIDORA COM BALANÇA DIGITAL PRETO</t>
+  </si>
+  <si>
+    <t>CARREGADOR PARA NOTEBBOK AGOLD 120W</t>
+  </si>
+  <si>
+    <t>MASSAGEADOR MUSCULAR INOVA JMQ-12216</t>
   </si>
 </sst>
 </file>
@@ -533,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,16 +606,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>14152</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>-13</v>
@@ -605,25 +635,25 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>13965</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>-2</v>
+        <v>-26</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -634,25 +664,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>10130</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>-1349</v>
+        <v>-1370</v>
       </c>
       <c r="H4">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I4">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -663,25 +693,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>10130</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>-1349</v>
+        <v>-1370</v>
       </c>
       <c r="H5">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I5">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -692,25 +722,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>10130</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>-1349</v>
+        <v>-1370</v>
       </c>
       <c r="H6">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I6">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -721,16 +751,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>13544</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -750,16 +780,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>13244</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>-15</v>
@@ -779,25 +809,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>12945</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>-99</v>
+        <v>-107</v>
       </c>
       <c r="H9">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I9">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -808,19 +838,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>396985</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>-56</v>
+        <v>-59</v>
       </c>
       <c r="H10">
         <v>1.02</v>
@@ -837,25 +867,25 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>10130</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>-1349</v>
+        <v>-1370</v>
       </c>
       <c r="H11">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I11">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -866,19 +896,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>11436</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G12">
-        <v>-153</v>
+        <v>-2</v>
       </c>
       <c r="H12">
         <v>1.02</v>
@@ -895,16 +925,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>418713</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G13">
         <v>-24</v>
@@ -924,16 +954,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>418713</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>-24</v>
@@ -953,25 +983,25 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>10525</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G15">
-        <v>-129</v>
+        <v>-133</v>
       </c>
       <c r="H15">
         <v>1.04</v>
       </c>
       <c r="I15">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -982,16 +1012,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>14280</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>-5</v>
@@ -1011,16 +1041,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>13198</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>-85</v>
@@ -1040,16 +1070,16 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>13854</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1069,25 +1099,25 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>12945</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <v>-99</v>
+        <v>-107</v>
       </c>
       <c r="H19">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I19">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1098,25 +1128,25 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>10525</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G20">
-        <v>-129</v>
+        <v>-133</v>
       </c>
       <c r="H20">
         <v>1.04</v>
       </c>
       <c r="I20">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1127,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>13977</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>-38</v>
@@ -1156,25 +1186,25 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>10130</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>-1349</v>
+        <v>-1370</v>
       </c>
       <c r="H22">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I22">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1185,25 +1215,25 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>10130</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G23">
-        <v>-1349</v>
+        <v>-1370</v>
       </c>
       <c r="H23">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I23">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1214,25 +1244,25 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>10130</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G24">
-        <v>-1349</v>
+        <v>-1370</v>
       </c>
       <c r="H24">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I24">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1243,25 +1273,170 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>10130</v>
       </c>
       <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25">
+        <v>-1370</v>
+      </c>
+      <c r="H25">
+        <v>1.07</v>
+      </c>
+      <c r="I25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="G25">
-        <v>-1349</v>
-      </c>
-      <c r="H25">
-        <v>1.06</v>
-      </c>
-      <c r="I25">
-        <v>0.28</v>
+      <c r="E26">
+        <v>48646</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26">
+        <v>-13</v>
+      </c>
+      <c r="H26">
+        <v>1.08</v>
+      </c>
+      <c r="I26">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>10130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27">
+        <v>-1370</v>
+      </c>
+      <c r="H27">
+        <v>1.07</v>
+      </c>
+      <c r="I27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>12651</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28">
+        <v>-118</v>
+      </c>
+      <c r="H28">
+        <v>1.02</v>
+      </c>
+      <c r="I28">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>10130</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29">
+        <v>-1370</v>
+      </c>
+      <c r="H29">
+        <v>1.07</v>
+      </c>
+      <c r="I29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>12886</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30">
+        <v>-154</v>
+      </c>
+      <c r="H30">
+        <v>1.01</v>
+      </c>
+      <c r="I30">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
